--- a/src/main/resources/static/upload/Ot-addActividad_multiple_rules.xlsx
+++ b/src/main/resources/static/upload/Ot-addActividad_multiple_rules.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ar00062451\Documents\drools-poc\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95D8A7A0-2117-437C-A7B0-E08E5B36BCA7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E8ADA8B-6715-4D36-AAE0-0E9D5F99B14B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="49">
   <si>
     <t>RuleSet</t>
   </si>
@@ -180,9 +180,6 @@
     <t>$ot.getCodOT()  == ($param)</t>
   </si>
   <si>
-    <t>"xxxx"</t>
-  </si>
-  <si>
     <t>$ot.setValorMaximo($param);</t>
   </si>
   <si>
@@ -199,6 +196,9 @@
   </si>
   <si>
     <t>com.example.cargaUnificada.resource.rule.model.Ot, com.example.cargaUnificada.resource.rule.model.Actividad</t>
+  </si>
+  <si>
+    <t>"a50394de-2e7c-4db6-9b49-0f20397dc156","a50394de-2e7c-4db6-9b49-0f20397dc157"</t>
   </si>
 </sst>
 </file>
@@ -1053,7 +1053,7 @@
   <dimension ref="A1:J996"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:F2"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="12.75" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -1061,7 +1061,7 @@
     <col min="1" max="1" width="23.42578125" customWidth="1"/>
     <col min="2" max="2" width="45.7109375" customWidth="1"/>
     <col min="3" max="3" width="31" customWidth="1"/>
-    <col min="4" max="4" width="27" customWidth="1"/>
+    <col min="4" max="4" width="73.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="40.140625" customWidth="1"/>
     <col min="7" max="7" width="28.7109375" customWidth="1"/>
     <col min="8" max="8" width="11.42578125" customWidth="1"/>
@@ -1087,7 +1087,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="53" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C2" s="53"/>
       <c r="D2" s="53"/>
@@ -1217,7 +1217,7 @@
       </c>
       <c r="C11" s="24"/>
       <c r="D11" s="24" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E11" s="25"/>
       <c r="F11" s="24" t="s">
@@ -1232,7 +1232,9 @@
         <v>21</v>
       </c>
       <c r="C12" s="25"/>
-      <c r="D12" s="24"/>
+      <c r="D12" s="24" t="s">
+        <v>48</v>
+      </c>
       <c r="E12" s="24" t="s">
         <v>24</v>
       </c>
@@ -1314,7 +1316,7 @@
         <v>39</v>
       </c>
       <c r="F18" s="41" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G18" s="17" t="s">
         <v>12</v>
@@ -1355,10 +1357,10 @@
       </c>
       <c r="D20" s="46"/>
       <c r="E20" s="34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F20" s="34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G20" s="34"/>
     </row>
@@ -1374,10 +1376,10 @@
       </c>
       <c r="D21" s="47"/>
       <c r="E21" s="28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F21" s="28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G21" s="28" t="s">
         <v>38</v>

--- a/src/main/resources/static/upload/Ot-addActividad_multiple_rules.xlsx
+++ b/src/main/resources/static/upload/Ot-addActividad_multiple_rules.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ar00062451\Documents\drools-poc\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8C7EDF3-0852-4334-933D-16B34E211885}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F9260A6-2945-483A-845D-53CF8451EBC9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1012,7 +1012,7 @@
   <dimension ref="A2:F935"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8627,6 +8627,11 @@
       <c r="F935" s="22"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
+  <protectedRanges>
+    <protectedRange sqref="B21:F22" name="Rango2"/>
+    <protectedRange sqref="B12:F13" name="Rango1"/>
+  </protectedRanges>
   <mergeCells count="7">
     <mergeCell ref="B18:D18"/>
     <mergeCell ref="A16:F16"/>

--- a/src/main/resources/static/upload/Ot-addActividad_multiple_rules.xlsx
+++ b/src/main/resources/static/upload/Ot-addActividad_multiple_rules.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ar00062451\Documents\drools-poc\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ar00062451\Documents\drools-poc\src\main\resources\static\upload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F9260A6-2945-483A-845D-53CF8451EBC9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B3F9ADA-1EE2-4B57-B353-D464D126C9D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-4365" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Actividad" sheetId="1" r:id="rId1"/>
@@ -121,9 +121,6 @@
     <t>Entrega de Otros</t>
   </si>
   <si>
-    <t>producto</t>
-  </si>
-  <si>
     <t>entidad</t>
   </si>
   <si>
@@ -157,13 +154,16 @@
     <t>$ot.agregar_actividades(Arrays.asList($param));</t>
   </si>
   <si>
-    <t>com.example.cargaUnificada.resource.rule.model.Ot, com.example.cargaUnificada.resource.rule.model.Actividad, java.util.Arrays</t>
-  </si>
-  <si>
     <t>"SolicitudMotivoSinRemesa"</t>
   </si>
   <si>
     <t>"Coleta","CONTAR-2"</t>
+  </si>
+  <si>
+    <t>com.example.cargaUnificada.resource.rule.model.Ot, com.example.cargaUnificada.resource.rule.model.Actividad, com.example.cargaUnificada.resource.rule.model.ServicioRuta, java.util.Arrays</t>
+  </si>
+  <si>
+    <t>servicio_ruta.codigo_producto</t>
   </si>
 </sst>
 </file>
@@ -273,7 +273,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -362,12 +362,6 @@
       <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor rgb="FFB4C7E7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -471,7 +465,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -594,9 +588,6 @@
     </xf>
     <xf numFmtId="1" fontId="5" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="9" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1012,7 +1003,7 @@
   <dimension ref="A2:F935"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1032,25 +1023,25 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="50" t="s">
-        <v>32</v>
+      <c r="B2" s="49" t="s">
+        <v>31</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
     </row>
     <row r="3" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="51" t="s">
-        <v>41</v>
+      <c r="B3" s="50" t="s">
+        <v>42</v>
       </c>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
     </row>
     <row r="4" spans="1:6" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
@@ -1066,13 +1057,13 @@
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="51" t="s">
+      <c r="B5" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
     </row>
     <row r="6" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5"/>
@@ -1083,14 +1074,14 @@
       <c r="F6" s="7"/>
     </row>
     <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="52" t="s">
-        <v>31</v>
+      <c r="A7" s="51" t="s">
+        <v>30</v>
       </c>
-      <c r="B7" s="52"/>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
@@ -1114,30 +1105,30 @@
     </row>
     <row r="9" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
-      <c r="B9" s="53" t="s">
+      <c r="B9" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="53"/>
-      <c r="D9" s="53"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="52"/>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
     </row>
     <row r="10" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
       <c r="B10" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>36</v>
-      </c>
       <c r="E10" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -1173,7 +1164,7 @@
       </c>
       <c r="E12" s="20"/>
       <c r="F12" s="42" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -1186,10 +1177,10 @@
       <c r="C13" s="20"/>
       <c r="D13" s="42"/>
       <c r="E13" s="42" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F13" s="42" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -1197,7 +1188,7 @@
       <c r="B14" s="3"/>
       <c r="C14" s="22"/>
       <c r="D14" s="22"/>
-      <c r="E14" s="43"/>
+      <c r="E14" s="22"/>
       <c r="F14" s="22"/>
     </row>
     <row r="15" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -1209,14 +1200,14 @@
       <c r="F15" s="22"/>
     </row>
     <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="48" t="s">
+      <c r="A16" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="49"/>
-      <c r="C16" s="49"/>
-      <c r="D16" s="49"/>
-      <c r="E16" s="49"/>
-      <c r="F16" s="49"/>
+      <c r="B16" s="48"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="48"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="37" t="s">
@@ -1240,30 +1231,30 @@
     </row>
     <row r="18" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="24"/>
-      <c r="B18" s="46" t="s">
+      <c r="B18" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="47"/>
-      <c r="D18" s="47"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
       <c r="E18" s="34"/>
       <c r="F18" s="34"/>
     </row>
     <row r="19" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="38"/>
       <c r="B19" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C19" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="33" t="s">
-        <v>30</v>
-      </c>
       <c r="E19" s="35" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F19" s="35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -1297,10 +1288,10 @@
         <v>27</v>
       </c>
       <c r="D21" s="40"/>
-      <c r="E21" s="44">
+      <c r="E21" s="43">
         <v>1500.12</v>
       </c>
-      <c r="F21" s="44">
+      <c r="F21" s="43">
         <v>32000.12</v>
       </c>
     </row>
@@ -1315,10 +1306,10 @@
         <v>28</v>
       </c>
       <c r="D22" s="41"/>
-      <c r="E22" s="45">
+      <c r="E22" s="44">
         <v>101.12</v>
       </c>
-      <c r="F22" s="45">
+      <c r="F22" s="44">
         <v>751.12300000000005</v>
       </c>
     </row>
@@ -8627,7 +8618,7 @@
       <c r="F935" s="22"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="r1tDyZ1sQi8R5TUMG9IepV2iJaIz/xRrRNL1pB4I7/n+eyoKsFq2woZZ7NVwfUg3S36B1JkZQKLHPPZdZ7jhog==" saltValue="KHgEg5TWcyjm2P5CKStHMQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <protectedRanges>
     <protectedRange sqref="B21:F22" name="Rango2"/>
     <protectedRange sqref="B12:F13" name="Rango1"/>
